--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1452,28 +1452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.64017556736653</v>
+        <v>117.0030545487078</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.0719340384619</v>
+        <v>160.0887410439374</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.2805073513163</v>
+        <v>144.8100962847072</v>
       </c>
       <c r="AD2" t="n">
-        <v>82640.17556736653</v>
+        <v>117003.0545487078</v>
       </c>
       <c r="AE2" t="n">
-        <v>113071.9340384619</v>
+        <v>160088.7410439374</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.163588244020739e-06</v>
+        <v>6.002497006864069e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.3046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>102280.5073513163</v>
+        <v>144810.0962847073</v>
       </c>
     </row>
     <row r="3">
@@ -1558,28 +1558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.29806114464603</v>
+        <v>108.1982540396472</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.6038379922728</v>
+        <v>148.0416245470629</v>
       </c>
       <c r="AC3" t="n">
-        <v>101.8570857347984</v>
+        <v>133.9127396780565</v>
       </c>
       <c r="AD3" t="n">
-        <v>82298.06114464602</v>
+        <v>108198.2540396472</v>
       </c>
       <c r="AE3" t="n">
-        <v>112603.8379922728</v>
+        <v>148041.6245470629</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.210738090990482e-06</v>
+        <v>6.070471263376205e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.213541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>101857.0857347984</v>
+        <v>133912.7396780565</v>
       </c>
     </row>
   </sheetData>
@@ -1855,28 +1855,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.38009327134905</v>
+        <v>113.8791952907685</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.9795897332584</v>
+        <v>155.814538992283</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.48329204646801</v>
+        <v>140.9438180779811</v>
       </c>
       <c r="AD2" t="n">
-        <v>80380.09327134905</v>
+        <v>113879.1952907685</v>
       </c>
       <c r="AE2" t="n">
-        <v>109979.5897332584</v>
+        <v>155814.538992283</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.316590907314362e-06</v>
+        <v>6.319326702678352e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.278645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>99483.29204646801</v>
+        <v>140943.8180779811</v>
       </c>
     </row>
   </sheetData>
@@ -2152,28 +2152,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.01264146416135</v>
+        <v>105.0817964011203</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.2673612585206</v>
+        <v>143.777549717625</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.60254642966696</v>
+        <v>130.0556221656722</v>
       </c>
       <c r="AD2" t="n">
-        <v>74012.64146416135</v>
+        <v>105081.7964011203</v>
       </c>
       <c r="AE2" t="n">
-        <v>101267.3612585206</v>
+        <v>143777.5497176251</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.594668588402853e-06</v>
+        <v>7.108519439596888e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.630208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>91602.54642966695</v>
+        <v>130055.6221656722</v>
       </c>
     </row>
   </sheetData>
@@ -2449,28 +2449,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.01544250020552</v>
+        <v>107.9307123465912</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.0076819933807</v>
+        <v>147.6755621995175</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.08133479965711</v>
+        <v>133.5816138071889</v>
       </c>
       <c r="AD2" t="n">
-        <v>76015.44250020552</v>
+        <v>107930.7123465912</v>
       </c>
       <c r="AE2" t="n">
-        <v>104007.6819933807</v>
+        <v>147675.5621995174</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.6020168956748e-06</v>
+        <v>6.955000377089671e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.291666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>94081.33479965711</v>
+        <v>133581.6138071889</v>
       </c>
     </row>
   </sheetData>
@@ -2746,28 +2746,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.4171057219674</v>
+        <v>110.567100924511</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.0302318010685</v>
+        <v>151.2827853610809</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.52910090640289</v>
+        <v>136.8445686529834</v>
       </c>
       <c r="AD2" t="n">
-        <v>80417.1057219674</v>
+        <v>110567.100924511</v>
       </c>
       <c r="AE2" t="n">
-        <v>110030.2318010685</v>
+        <v>151282.7853610809</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.452237937062364e-06</v>
+        <v>7.036708589674474e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.190104166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>99529.10090640289</v>
+        <v>136844.5686529834</v>
       </c>
     </row>
   </sheetData>
@@ -3043,28 +3043,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.92165660200743</v>
+        <v>106.3442940678791</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.7205805743528</v>
+        <v>145.5049547227497</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.1535637616757</v>
+        <v>131.6181660615364</v>
       </c>
       <c r="AD2" t="n">
-        <v>80921.65660200742</v>
+        <v>106344.2940678791</v>
       </c>
       <c r="AE2" t="n">
-        <v>110720.5805743528</v>
+        <v>145504.9547227497</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.293369493556352e-06</v>
+        <v>6.259244517873757e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.252604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>100153.5637616757</v>
+        <v>131618.1660615364</v>
       </c>
     </row>
   </sheetData>
@@ -3340,28 +3340,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.85611710018122</v>
+        <v>116.9475861508281</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.2626624196697</v>
+        <v>160.0128467348653</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.83478726947418</v>
+        <v>144.7414452219747</v>
       </c>
       <c r="AD2" t="n">
-        <v>79856.11710018122</v>
+        <v>116947.5861508281</v>
       </c>
       <c r="AE2" t="n">
-        <v>109262.6624196697</v>
+        <v>160012.8467348653</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.281415941035635e-06</v>
+        <v>6.859834032202068e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.7109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>98834.78726947418</v>
+        <v>144741.4452219747</v>
       </c>
     </row>
   </sheetData>
@@ -3637,28 +3637,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.13468306875713</v>
+        <v>102.8344110432265</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.9073204335669</v>
+        <v>140.7025779233118</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.70423581678101</v>
+        <v>127.2741213636572</v>
       </c>
       <c r="AD2" t="n">
-        <v>78134.68306875712</v>
+        <v>102834.4110432265</v>
       </c>
       <c r="AE2" t="n">
-        <v>106907.3204335669</v>
+        <v>140702.5779233118</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.49427214072558e-06</v>
+        <v>6.673289414204888e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.213541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>96704.235816781</v>
+        <v>127274.1213636572</v>
       </c>
     </row>
   </sheetData>
@@ -3934,28 +3934,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.58892132723881</v>
+        <v>104.6645292007296</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.8970733752845</v>
+        <v>143.2066263255211</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.50408953037756</v>
+        <v>129.5391869008144</v>
       </c>
       <c r="AD2" t="n">
-        <v>79588.9213272388</v>
+        <v>104664.5292007296</v>
       </c>
       <c r="AE2" t="n">
-        <v>108897.0733752846</v>
+        <v>143206.6263255211</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.38545320288078e-06</v>
+        <v>6.448556679805473e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.239583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>98504.08953037756</v>
+        <v>129539.1869008144</v>
       </c>
     </row>
   </sheetData>
@@ -4231,28 +4231,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.40817774951297</v>
+        <v>116.565566382237</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.7545043890534</v>
+        <v>159.4901504339566</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.993372742132</v>
+        <v>144.2686343224157</v>
       </c>
       <c r="AD2" t="n">
-        <v>82408.17774951298</v>
+        <v>116565.566382237</v>
       </c>
       <c r="AE2" t="n">
-        <v>112754.5043890534</v>
+        <v>159490.1504339566</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.157933110215517e-06</v>
+        <v>6.015583308413745e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.369791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>101993.372742132</v>
+        <v>144268.6343224157</v>
       </c>
     </row>
     <row r="3">
@@ -4337,28 +4337,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.45156921993382</v>
+        <v>116.6089578526579</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.8138745131798</v>
+        <v>159.5495205580829</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.0470766649382</v>
+        <v>144.3223382452219</v>
       </c>
       <c r="AD3" t="n">
-        <v>82451.56921993382</v>
+        <v>116608.9578526579</v>
       </c>
       <c r="AE3" t="n">
-        <v>112813.8745131798</v>
+        <v>159549.5205580829</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.174732174512513e-06</v>
+        <v>6.039887732776344e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.34375</v>
       </c>
       <c r="AH3" t="n">
-        <v>102047.0766649382</v>
+        <v>144322.3382452219</v>
       </c>
     </row>
   </sheetData>
@@ -4634,28 +4634,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.73371948501772</v>
+        <v>101.0212366931652</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.9904602521443</v>
+        <v>138.2217127859524</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.97031808074266</v>
+        <v>125.0300265130905</v>
       </c>
       <c r="AD2" t="n">
-        <v>76733.71948501772</v>
+        <v>101021.2366931652</v>
       </c>
       <c r="AE2" t="n">
-        <v>104990.4602521443</v>
+        <v>138221.7127859524</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.569340079953521e-06</v>
+        <v>6.861707694358799e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.252604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>94970.31808074265</v>
+        <v>125030.0265130905</v>
       </c>
     </row>
   </sheetData>
@@ -4931,28 +4931,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.69216176134792</v>
+        <v>105.9543375290771</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.1971109074506</v>
+        <v>144.9713989826926</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.44356207701513</v>
+        <v>131.1355321324601</v>
       </c>
       <c r="AD2" t="n">
-        <v>74692.16176134792</v>
+        <v>105954.337529077</v>
       </c>
       <c r="AE2" t="n">
-        <v>102197.1109074506</v>
+        <v>144971.3989826926</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.6100902489735e-06</v>
+        <v>7.070710931414456e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.486979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>92443.56207701513</v>
+        <v>131135.5321324601</v>
       </c>
     </row>
   </sheetData>
@@ -7665,28 +7665,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.35618167393598</v>
+        <v>104.0292220343012</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.3691640125727</v>
+        <v>142.3373710326401</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.7900718682443</v>
+        <v>128.7528921130783</v>
       </c>
       <c r="AD2" t="n">
-        <v>73356.18167393598</v>
+        <v>104029.2220343012</v>
       </c>
       <c r="AE2" t="n">
-        <v>100369.1640125727</v>
+        <v>142337.3710326401</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.546896807183703e-06</v>
+        <v>7.104436572022894e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.8515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>90790.0718682443</v>
+        <v>128752.8921130783</v>
       </c>
     </row>
   </sheetData>
@@ -7962,28 +7962,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.16853945107218</v>
+        <v>123.6273202468952</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.2678412814598</v>
+        <v>169.1523536141699</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.8850859030549</v>
+        <v>153.0086903920999</v>
       </c>
       <c r="AD2" t="n">
-        <v>87168.53945107218</v>
+        <v>123627.3202468952</v>
       </c>
       <c r="AE2" t="n">
-        <v>119267.8412814598</v>
+        <v>169152.3536141699</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.939144751398625e-06</v>
+        <v>6.419530186163238e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.7265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>107885.0859030549</v>
+        <v>153008.6903920998</v>
       </c>
     </row>
   </sheetData>
@@ -8259,28 +8259,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.94967073273403</v>
+        <v>103.8413471589483</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.0224225101377</v>
+        <v>142.0803123397279</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.71291411621986</v>
+        <v>128.5203667410334</v>
       </c>
       <c r="AD2" t="n">
-        <v>78949.67073273404</v>
+        <v>103841.3471589483</v>
       </c>
       <c r="AE2" t="n">
-        <v>108022.4225101377</v>
+        <v>142080.3123397279</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.421502224888623e-06</v>
+        <v>6.532242515291655e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.252604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>97712.91411621986</v>
+        <v>128520.3667410334</v>
       </c>
     </row>
   </sheetData>
@@ -8556,28 +8556,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.58346035008103</v>
+        <v>115.5287995123149</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.6260896591874</v>
+        <v>158.0716002636037</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.972652330344</v>
+        <v>142.9854685893731</v>
       </c>
       <c r="AD2" t="n">
-        <v>81583.46035008102</v>
+        <v>115528.7995123149</v>
       </c>
       <c r="AE2" t="n">
-        <v>111626.0896591874</v>
+        <v>158071.6002636037</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.243120905016423e-06</v>
+        <v>6.161728707831744e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.278645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>100972.652330344</v>
+        <v>142985.4685893731</v>
       </c>
     </row>
   </sheetData>
@@ -8853,28 +8853,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.5819031986274</v>
+        <v>152.1906356741729</v>
       </c>
       <c r="AB2" t="n">
-        <v>149.9347943686714</v>
+        <v>208.2339419062932</v>
       </c>
       <c r="AC2" t="n">
-        <v>135.6252280289718</v>
+        <v>188.360386748989</v>
       </c>
       <c r="AD2" t="n">
-        <v>109581.9031986274</v>
+        <v>152190.6356741729</v>
       </c>
       <c r="AE2" t="n">
-        <v>149934.7943686714</v>
+        <v>208233.9419062932</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.304859627622694e-06</v>
+        <v>5.509004098877139e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.00520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>135625.2280289718</v>
+        <v>188360.386748989</v>
       </c>
     </row>
   </sheetData>
@@ -9150,28 +9150,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.39746124846369</v>
+        <v>106.9970329511345</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.1621327813392</v>
+        <v>146.3980608596264</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.31648361767685</v>
+        <v>132.4260354021923</v>
       </c>
       <c r="AD2" t="n">
-        <v>75397.46124846369</v>
+        <v>106997.0329511345</v>
       </c>
       <c r="AE2" t="n">
-        <v>103162.1327813392</v>
+        <v>146398.0608596265</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.609468424528876e-06</v>
+        <v>7.015180517908246e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.3828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>93316.48361767686</v>
+        <v>132426.0354021923</v>
       </c>
     </row>
   </sheetData>
@@ -9447,28 +9447,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.5270708480264</v>
+        <v>102.0258238156707</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.0759585872042</v>
+        <v>139.5962332062196</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.95221797821124</v>
+        <v>126.2733646335994</v>
       </c>
       <c r="AD2" t="n">
-        <v>77527.0708480264</v>
+        <v>102025.8238156707</v>
       </c>
       <c r="AE2" t="n">
-        <v>106075.9585872042</v>
+        <v>139596.2332062196</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.5140258426356e-06</v>
+        <v>6.739037453559433e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.252604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>95952.21797821124</v>
+        <v>126273.3646335994</v>
       </c>
     </row>
   </sheetData>
